--- a/lab3/加速比.xlsx
+++ b/lab3/加速比.xlsx
@@ -36,10 +36,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -51,7 +51,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -65,15 +72,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -81,7 +90,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -95,33 +111,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,16 +134,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,7 +165,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,15 +179,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,7 +203,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -215,13 +227,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,13 +251,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,25 +275,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,109 +371,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,43 +400,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -446,21 +411,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,6 +431,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -494,129 +474,149 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -625,27 +625,30 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -848,40 +851,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.001601</c:v>
+                  <c:v>0.000902</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00086</c:v>
+                  <c:v>0.000488</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000628</c:v>
+                  <c:v>0.00038</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000531</c:v>
+                  <c:v>0.000317</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000556</c:v>
+                  <c:v>0.000301</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.000527</c:v>
+                  <c:v>0.000329</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.000498</c:v>
+                  <c:v>0.000382</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.000575</c:v>
+                  <c:v>0.000414</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.000581</c:v>
+                  <c:v>0.000444</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.000578</c:v>
+                  <c:v>0.000381</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.008046</c:v>
+                  <c:v>0.000493</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.00322</c:v>
+                  <c:v>0.000502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1133,40 +1136,40 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.9997038</c:v>
+                  <c:v>0.99958856</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9542484</c:v>
+                  <c:v>0.94933441</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92978005</c:v>
+                  <c:v>0.92515538</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8606182</c:v>
+                  <c:v>0.86120931</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.69393022</c:v>
+                  <c:v>0.80987975</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.65523628</c:v>
+                  <c:v>0.80966501</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.66141663</c:v>
+                  <c:v>0.6908252</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.81137312</c:v>
+                  <c:v>0.81805294</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.78782996</c:v>
+                  <c:v>0.79452898</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.76261735</c:v>
+                  <c:v>0.75911877</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.30643093</c:v>
+                  <c:v>0.77454281</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.37131684</c:v>
+                  <c:v>0.71744218</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1725,37 +1728,37 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.86162790697674</c:v>
+                  <c:v>1.84836065573771</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.54936305732484</c:v>
+                  <c:v>2.37368421052632</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.015065913371</c:v>
+                  <c:v>2.84542586750789</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8794964028777</c:v>
+                  <c:v>2.99667774086379</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.03795066413662</c:v>
+                  <c:v>2.74164133738602</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.214859437751</c:v>
+                  <c:v>2.36125654450262</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.78434782608696</c:v>
+                  <c:v>2.17874396135266</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.75559380378657</c:v>
+                  <c:v>2.03153153153153</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.76989619377163</c:v>
+                  <c:v>2.36745406824147</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.198980860054686</c:v>
+                  <c:v>1.82961460446247</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.497204968944099</c:v>
+                  <c:v>1.79681274900398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3171,15 +3174,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1247775</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>46990</xdr:rowOff>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104140</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3187,7 +3190,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8591550" y="1133475"/>
+        <a:off x="7620000" y="981075"/>
         <a:ext cx="5438775" cy="3314065"/>
       </xdr:xfrm>
       <a:graphic>
@@ -3462,7 +3465,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -3472,7 +3475,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -3489,17 +3492,17 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.001601</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.9997038</v>
-      </c>
-      <c r="D2" s="1">
-        <v>3.756e-5</v>
+        <v>0.000902</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.99958856</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3.752e-5</v>
       </c>
       <c r="E2">
         <f>$B$2/B2</f>
@@ -3507,201 +3510,201 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.00086</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.9542484</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.04529128</v>
+        <v>0.000488</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.94933441</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.05009159</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E13" si="0">$B$2/B3</f>
-        <v>1.86162790697674</v>
+        <v>1.84836065573771</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.000628</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.92978005</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.06940565</v>
+        <v>0.00038</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.92515538</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.07415931</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>2.54936305732484</v>
+        <v>2.37368421052632</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.000531</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.8606182</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.13862112</v>
+        <v>0.000317</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.86120931</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.13757459</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>3.015065913371</v>
+        <v>2.84542586750789</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.000556</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.69393022</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.30529648</v>
+        <v>0.000301</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.80987975</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.18898092</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>2.8794964028777</v>
+        <v>2.99667774086379</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.000527</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.65523628</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.34399602</v>
+        <v>0.000329</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.80966501</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.1892472</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>3.03795066413662</v>
+        <v>2.74164133738602</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.000498</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.66141663</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.33774556</v>
+        <v>0.000382</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.6908252</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.30836796</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>3.214859437751</v>
+        <v>2.36125654450262</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.000575</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.81137312</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.18728871</v>
+        <v>0.000414</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.81805294</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.18082892</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>2.78434782608696</v>
+        <v>2.17874396135266</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.000581</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.78782996</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.21118458</v>
+        <v>0.000444</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.79452898</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.20435986</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>2.75559380378657</v>
+        <v>2.03153153153153</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.000578</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.76261735</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.23623117</v>
+        <v>0.000381</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.75911877</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.2395687</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>2.76989619377163</v>
+        <v>2.36745406824147</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.008046</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.30643093</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.69329488</v>
+        <v>0.000493</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.77454281</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.22379882</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>0.198980860054686</v>
+        <v>1.82961460446247</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.00322</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.37131684</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.62811291</v>
+        <v>0.000502</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.71744218</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.28102568</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0.497204968944099</v>
+        <v>1.79681274900398</v>
       </c>
     </row>
   </sheetData>
